--- a/biology/Médecine/Institut_national_de_prévention_et_d'éducation_pour_la_santé/Institut_national_de_prévention_et_d'éducation_pour_la_santé.xlsx
+++ b/biology/Médecine/Institut_national_de_prévention_et_d'éducation_pour_la_santé/Institut_national_de_prévention_et_d'éducation_pour_la_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Institut national de prévention et d'éducation pour la santé (INPES) est un établissement public administratif (EPA) français placé sous la tutelle du ministère chargé de la Santé.
 Créé par la loi du 4 mars 2002 relative aux droits des malades et à la qualité du système de santé, il s'est constitué à partir de la transformation du Comité français d'éducation pour la santé (CFES), auquel il se substitue.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut, qui fait partie des organismes de santé implantés à la Plaine Saint-Denis, à Saint-Denis (Seine-Saint-Denis), compte 140 personnes, et est chargé de mettre en œuvre les moyens de prévention et d'éducation décidés par le gouvernement français dans le cadre de sa politique de santé publique.
 Sous la tutelle du ministère de la Santé, l’INPES a pour missions :
@@ -522,7 +536,7 @@
 d’assurer le développement de l’éducation pour la santé sur l’ensemble du territoire ;
 de participer, à la demande du ministre chargé de la santé, à la gestion des situations urgentes ou exceptionnelles ayant des conséquences sanitaires collectives, notamment en participant à la diffusion de messages sanitaires en situation d’urgence ;
 d’établir les programmes de formation à l’éducation à la santé.
-Depuis la loi du 9 août 2004[1] relative à la politique de santé publique, l'INPES peut également intervenir dans la gestion de situations d'urgences sanitaires et participer à la formation à l’éducation pour la santé.
+Depuis la loi du 9 août 2004 relative à la politique de santé publique, l'INPES peut également intervenir dans la gestion de situations d'urgences sanitaires et participer à la formation à l’éducation pour la santé.
 La loi relative à la santé publique du 9 août 2004 prévoit cinq plans nationaux dont l'INPES est responsable :
 lutte contre le cancer ;
 lutte pour limiter l’impact sur la santé de la violence, des comportements à risque et des conduites addictives ;
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les directions
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,19 +624,25 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alcool
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Détail des campagnes Alcool
 L'alcool, pas besoin d'être ivre pour en mourir (2003). Rediffusion de la campagne créée en 2001. Réalisateur : Pierre Salvadori
-2 spots TV : Les deux femmes (toilettes)[2][source insuffisante] et Les deux amis (escalier)[3][source insuffisante]
+2 spots TV : Les deux femmes (toilettes)[source insuffisante] et Les deux amis (escalier)[source insuffisante]
 Alcool : votre corps se souvient de tout (2004)
-Spot TV Le geste qui sauve[4]
+Spot TV Le geste qui sauve
 Brochure Alcool votre corps se souvient de tout
 Guide pratique pour faire le point sur votre consommation d'alcool
 2 annonces presse Jour après jour, votre corps enregistre chaque verre que vous buvez et 9 mois… 0 alcool
 Alcool, lutter contre les idées reçues (2005)
 Affiche et annonce presse Il y a la même quantité d'alcool dans un demi de bière…
 5 millions de Français ont un problème avec l’alcool. Et si les autres c’était vous ? (2006)
-Spot TV La Boucle[5][source insuffisante]. Réalisateur : Emmanuel Bellegarde
+Spot TV La Boucle[source insuffisante]. Réalisateur : Emmanuel Bellegarde
 5 spots radio : Ivresse, Alcool fort, Femme enceinte, Excès et Heure de consommation
 Zéro alcool pendant la grossesse (2007)
 Pictogramme Femme enceinte
@@ -630,11 +652,47 @@
 3 spots radio : Fred, Martin et Sophie
 Affiche Violence, abus sexuels, malaises. Boire trop. Des sensations trop extrêmes
 Brochure Alcool. Plus d’infos pour moins d’intox. Dessin : Riad Sattouf
-Site internet www.boiretrop.fr[6]
+Site internet www.boiretrop.fr
 Aider les Français à savoir où ils en sont avec l’alcool (2010)
 3 spots radio : Journée, Déjeuner et Samedi soir
-Site internet www.alcoolinfoservice.fr[7][source insuffisante]
-Accidents de la vie courante / Santé environnement
+Site internet www.alcoolinfoservice.fr[source insuffisante]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Accidents de la vie courante / Santé environnement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Détail des campagnes Accidents de la vie courante
 Enfants
 La moitié des chutes d’enfants par la fenêtre a lieu pendant la préparation des repas (2005)
@@ -642,9 +700,9 @@
 Produits ménagers et Bricolage (2005)
 Deux brochures Produits ménagers : précautions d'emploi et Bricolage : les précautions à prendre
 La maison de Victor et Léa (2005), en partenariat avec TF1
-Quinze programmes courts : Bain[8][source insuffisante], Fer à repasser[9][source insuffisante], Cuisine[10][source insuffisante], Escalier[11][source insuffisante], Fenêtre[12][source insuffisante], Bougie[13][source insuffisante], Médicaments[14][source insuffisante], Table à langer[15][source insuffisante], Petits aliments[16][source insuffisante], Chaise haute[17], Électrocution[18][source insuffisante], Petits objets[19][source insuffisante], Portes[20], Brûlure baignoire[21][source insuffisante] et Empoisonnement[22][source insuffisante]
+Quinze programmes courts : Bain[source insuffisante], Fer à repasser[source insuffisante], Cuisine[source insuffisante], Escalier[source insuffisante], Fenêtre[source insuffisante], Bougie[source insuffisante], Médicaments[source insuffisante], Table à langer[source insuffisante], Petits aliments[source insuffisante], Chaise haute, Électrocution[source insuffisante], Petits objets[source insuffisante], Portes, Brûlure baignoire[source insuffisante] et Empoisonnement[source insuffisante]
 Accidents domestiques : protégeons les enfants de 0  à   6 ans (2006)
-Trois spots TV : Chute (Table à langer)[23], Étouffement (Suffocation)[24][source insuffisante], Noyade (Bain)[25][source insuffisante]
+Trois spots TV : Chute (Table à langer), Étouffement (Suffocation)[source insuffisante], Noyade (Bain)[source insuffisante]
 Brochure Protégez vos enfants des accidents domestiques
 Affiches Médicaments = hors de portée des enfants et Produits ménagers = hors de portée des enfants
 Personnes âgées
@@ -680,14 +738,14 @@
 Dépliant Pollution de l'air intérieur, nous sommes tous concernés
 Affiche Les intoxications au monoxyde de carbone concernent tout le monde… les bons gestes de prévention aussi
 Quatre spots radio : Aération, Chauffage d'appoint, Vérification installations et Groupe électrogène
-Site internet www.prevention-maison.fr[26]
+Site internet www.prevention-maison.fr
 Risques solaires
 Plan Cancer (2004)
 Affiche Bien profiter des rayons du soleil
 Risques solaires : profiter du soleil en toute sécurité (2008)
 Brochure Risques solaires : ce qu'il faut savoir pour que le soleil reste un plaisir
 Affiche Risques solaires : 4 gestes simples
-Site internet www.prevention-soleil.fr[27]
+Site internet www.prevention-soleil.fr
 Profiter des beaux jours en toute sérénité (2010)
 Un spot radio : 1, 2, 3 Soleil !
 Trois annonces dans la presse : La crème ? J'en ai mis une fois ça suffit, Son chapeau ? Pas besoin, y'a des nuages et 15 heures ? Idéal pour une sieste au soleil
@@ -700,7 +758,7 @@
 Guide pratique pour le réglage des fixations aux normes de sécurité
 Vélo
 À vélo, le casque c'est pas obligatoire. C'est juste indispensable (2002)
-Spot TV La rencontre[28][source insuffisante]
+Spot TV La rencontre[source insuffisante]
 Affiche À vélo, le casque c'est pas obligatoire. C'est juste indispensable
 Le casque à vélo, c'est indispensable (2004)
 Affiche Pas de héros sans casque, pas de vélo sans casque
@@ -710,21 +768,57 @@
 Risques auditifs : À force d’écouter la musique trop fort, on finit par l’entendre à moitié (2008)
 Dépliant À force d’écouter la musique trop fort, on finit par l’entendre à moitié
 Trois spots radio : concert, baladeur et discothèque
-Site internet ecoute-ton-oreille.com[29]
+Site internet ecoute-ton-oreille.com
 Accident vasculaire cérébral : n’attendez pas pour composer le 15 ! (2009)
 Affiche L'accident vasculaire cérébral est une grande urgence. Vous ressentez brutalement une faiblesse d'un côté du corps. Composez vite le 15
 Le site prevention-maison.fr porte sur l'ensemble des risques accidentels et environnementaux dans l'habitat
 Six spots radio : deux sur France Inter, deux sur RTL, deux sur NRJ
-Ondes des portables et santé : les gestes à adopter (2010)[30]
+Ondes des portables et santé : les gestes à adopter (2010)
 Spot animé Les conseils santé fiables sur les ondes des téléphones sont sur lesondesmobiles.fr
-Site internet www.lesondesmobiles.fr[31]
-Contraception
+Site internet www.lesondesmobiles.fr
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contraception</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Détail des campagnes Contraception
 La meilleure contraception, c'est celle que l'on choisit (2007)
 Spot TV Toi sur moi (Il y a plein de façons de s'aimer, il y a plein de moyens de contraception)
 4 spots radio jeunes « Toi sur moi »
 Affiche Vous vous posez plein de questions sur la contraception ? Ça tombe bien, ici on a plein de réponses
-Site internet www.choisirsacontraception.fr[32]
+Site internet www.choisirsacontraception.fr
 Brochure La meilleure contraception, c'est celle que l'on choisit
 Contraception : une nouvelle campagne qui s’adresse aux femmes… et aux hommes (2009)
 2 spots TV : Les copains et Test de grossesse
@@ -738,28 +832,136 @@
 Nou Pa Ka Jwé (2014)
 3 spots TV : "Vous risquez tout ce soir" (On peut s'amuser, mais on ne joue pas avec sa santé.)
 Clip musical : Nou Pa Ka Jwé (par Jacob Desvarieux, Vicelow, Fanny J, Lila Chico et Sir Samuel)
-Drogues / Toxicomanie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Drogues / Toxicomanie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Détail des campagnes Drogues / Toxicomanie
 Le Cannabis est une réalité (2005)
 3 brochures : Cannabis, ce qu'il faut savoir, Guide d'aide à l'arrêt du Cannabis et Cannabis : les risques expliqués aux parents
 4 annonces presse : J'ai trouvé du cannabis dans la chambre de mes enfants. Qu'est-ce que je fais ?, Je crois que ma fille fume du cannabis. Je fais quoi ?, Mon fils veut arrêter le cannabis. Comment je peux l'aider ? et On m'a dit que le cannabis peut rendre dépendant. C'est vrai ?
-6 spots TV : Perte de motivation[33][source insuffisante], Dépendance[34][source insuffisante], Isolement[35][source insuffisante], Bad Trip[36], Difficultés scolaires 1 (Célia[37][source insuffisante] et Difficultés scolaires 2 (Modibo)[38][source insuffisante]
+6 spots TV : Perte de motivation[source insuffisante], Dépendance[source insuffisante], Isolement[source insuffisante], Bad Trip, Difficultés scolaires 1 (Célia[source insuffisante] et Difficultés scolaires 2 (Modibo)[source insuffisante]
 8 spots radio : Intoxication aigüe 1 et 2, Difficultés scolaires 1 et 2, Isolement, Perte de motivation, Dépendance 1 et 2
 Drogues : ne fermons pas les yeux (2009)
 1 spot TV Addiction Drogues : ne fermons pas les yeux
 3 spots TV Viraux Si les dealers disaient la vérité : Dealer Cocaïne, Dealer Ecstasy et Dealer Cannabis
 3 spots radio : Cannabis, Cocaïne et Ecstasy
-Site internet www.drogues.inpes.fr[39][source insuffisante] Drogues - Guette l'info et traque l'intox
-Infections respiratoires / Grippe
+Site internet www.drogues.inpes.fr[source insuffisante] Drogues - Guette l'info et traque l'intox
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Infections respiratoires / Grippe</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Détail des campagnes Infections respiratoires / Grippe
 Grippe aviaire (2005)
 Cédérom Grippe aviaire
 Gestes d'hygiène (2006)
-3 spots TV : Toux[40][source insuffisante], Mains sales (Mouchoir)[41][source insuffisante] et Eternuement[42]
+3 spots TV : Toux[source insuffisante], Mains sales (Mouchoir)[source insuffisante] et Eternuement
 Spot TV Vaccination grippe A (2009)
 Virus de l’hiver : avec ou sans les mains ? (2010)
 Spot TV Sans les mains
-Nutrition
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Détail des campagnes Nutrition
 La santé vient en mangeant, le guide alimentaire pour tous (2002)
 2 guides alimentaire La santé vient en mangeant : Grand public et Professionnels de santé
@@ -768,10 +970,10 @@
 2 disques de calcul de l'IMC : Enfant et Adulte
 L’activité physique au quotidien protège votre santé (2004)
 3 annonces presse Activité à hauts risques : Canapé, Chaussons et Télévision
-Spot TV Au moins 30 minutes de marche rapide chaque jour (deux versions 20 s[43] et 30 s[44][source insuffisante])
+Spot TV Au moins 30 minutes de marche rapide chaque jour (deux versions 20 s et 30 s[source insuffisante])
 4 spots radio Au moins l'équivalent de 30 minutes de marche rapide chaque jour
 Dépliant, affiche et quiz Bouger, c'est la santé !
-Site internet www.mangerbouger.fr[45]
+Site internet www.mangerbouger.fr
 2 guides alimentaire La santé vient en mangeant et en bougeant : Guide nutrition des enfants et des ados pour tous les parents et Livret d'accompagnement destiné aux professionnels de santé
 Guide alimentaire La santé vient en bougeant, le guide nutrition pour tous
 Grossesse et santé (2005)
@@ -779,7 +981,7 @@
 Cet été, adoptez les bons repères nutritionnels ! (2005)
 9 pictogrammes du PNNS Repères de consommation pour protéger sa santé.
 Manger moins souvent des produits gras et sucrés : c'est protéger notre santé (2005)
-3 spots TV : Adultes Centimètres[46][source insuffisante], Enfants Compotier / Fruits[47][source insuffisante] et Enfants Paille / Soda[48][source insuffisante]
+3 spots TV : Adultes Centimètres[source insuffisante], Enfants Compotier / Fruits[source insuffisante] et Enfants Paille / Soda[source insuffisante]
 Annonce presse Femmes On ne devrait pas penser sa santé à moitié
 2 annonces presse et 2 cartes postales Pour un enfant, un légume sera toujours plus intéressant avec un féculent
 Guide nutrition de la naissance à 3 ans des repères pour l’alimentation des petits (2006)
@@ -789,7 +991,7 @@
 La santé en mangeant et en bougeant : le guide nutrition à partir de 55 ans (2006)
 2 guides alimentaire Personnes âgées : Grand public (Le guide nutrition à partir de 55 ans) et Professionnels de santé (Le guide nutrition pour les aidants des personnes âgées)
 Affiche Mémo nutrition à scotcher sur le réfrigérateur
-3 spots TV Présentation du guide Sénior : La côte de bœuf[49], Le verre[50][source insuffisante] et La piscine[51]
+3 spots TV Présentation du guide Sénior : La côte de bœuf, Le verre[source insuffisante] et La piscine
 Bien manger et bien bouger… c’est possible au quotidien ! (2007), en partenariat avec France Télévisions
 40 programmes courts Vos questions Nutrition: Les Fruits et légumes (6), La viande, le poisson et les œufs (6), Les féculents (4), Les produits laitiers (3), Les produits sucrés (6), Les produits gras (4), Limiter la consommation de sel (2), Eau à volonté (2), Activité physique (3) et Complémentarité des repères (2)
 Répondre à toutes les questions sur l’alimentation pendant et après la grossesse (2007)
@@ -800,7 +1002,7 @@
 Les féculents, c’est important ? (2008)
 2 spots radio Préjugés sur les féculents et sur la prise de poids
 Aider les Français à choisir leurs aliments (réduire la consommation de gras, de sel et de sucre) (2009)
-Module internet MADAM[52][source insuffisante] (Machine À Décoder les Aliments Mystérieux) sur le site www.mangerbouger.fr
+Module internet MADAM[source insuffisante] (Machine À Décoder les Aliments Mystérieux) sur le site www.mangerbouger.fr
 3 spots TV Le sucre, le sel et le gras ne sont pas toujours là où on le pense : Le sucre (Café), Le sel (Restaurant) et Le gras (Cuisine)
 3 annonces presse : Cuisson, Coquetier et Café
 7 nouveaux dépliants sous forme de fiche conseil
@@ -815,32 +1017,68 @@
 Campagne de promotion de l’activité physique « Bouger au quotidien » (2010)
 Spot TV Bouger 30 minutes par jour, c’est facile !
 6 affiches Vous bougez comment aujourd'hui ?
-Sida et Infections sexuellement transmissibles (IST)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sida et Infections sexuellement transmissibles (IST)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Détail des campagnes Sida et IST
-L'INPES consacre à la lutte contre le VIH/sida le site dédié www.inpes-sida.fr[53].
+L'INPES consacre à la lutte contre le VIH/sida le site dédié www.inpes-sida.fr.
 Outre les campagnes VIH/sida en direction du grand public, des campagnes spécifiques sont créées en direction de différents publics ciblés : Jeunes, Homosexuels, Migrants d'Afrique sub-saharienne, Départements français d'Amérique (Martinique, Guadeloupe et Guyane) et Populations originaires du Maghreb.
 Campagnes VIH/sida à destination du grand public
 Journée mondiale de lutte contre le sida (01/12/2002)
-3 spots TV Sida, le test, c'est important de savoir (Réalisateur : Mickael Abel) : Hétéro[54][source insuffisante] (Rediffusé en 2005), Homo[55][source insuffisante] et Migrants[56][source insuffisante]
+3 spots TV Sida, le test, c'est important de savoir (Réalisateur : Mickael Abel) : Hétéro[source insuffisante] (Rediffusé en 2005), Homo[source insuffisante] et Migrants[source insuffisante]
 Affiche Solitaire/Solidaire Luttons contre l'indifférence, soutenons les personnes atteintes par le virus du sida
 Affiche Le sida, on peut l'éviter en mettant un préservatif à chaque rapport sexuel (2003)
 Journée mondiale de lutte contre le sida (01/12/2003)
-3 spots TV Et si le préservatif était un produit comme les autres ? : Pour nous les hommes[57][source insuffisante], Beauté[58] et Voyage[59][source insuffisante]
+3 spots TV Et si le préservatif était un produit comme les autres ? : Pour nous les hommes[source insuffisante], Beauté et Voyage[source insuffisante]
 Affiche Achetons des préservatifs aussi simplement que n'importe quel autre produit
 Dépliant Préservatif, petit manuel
 Parce que le virus du sida et les IST circulent, restez fidèle au préservatif (2004)
-3 spots TV Boîte de nuit : Hétéro[60][source insuffisante], Homo[61][source insuffisante] et Migrants[62]
+3 spots TV Boîte de nuit : Hétéro[source insuffisante], Homo[source insuffisante] et Migrants
 Journée mondiale de lutte contre le sida (01/12/2004)
-Spot TV Restez fidèle au préservatif[63][source insuffisante]. Musique : Charles Trenet (Que reste-t-il de nos amours ?)
+Spot TV Restez fidèle au préservatif[source insuffisante]. Musique : Charles Trenet (Que reste-t-il de nos amours ?)
 Affiches Non / Oui (Restez fidèle au préservatif) et Oui, oui, Ouiiiiii ! (Journée mondiale)
 Sida, faites le test et protégez-vous (2005)
-2 spots TV : Subsaharien (Miroir)[64] et Homo (Autoroute)[65][source insuffisante]
+2 spots TV : Subsaharien (Miroir) et Homo (Autoroute)[source insuffisante]
 Bravo, vous faites désormais partie des gens qui n'ont pas peur d'approcher une personne séropositive (2005, puis 2006-2007)
 6 affiches (Portraits)
 Journée mondiale de lutte contre le sida (Contre le Sida on a tous notre mot à dire) (01/12/2005)
-Spot TV J'ai flirté avec le virus du Sida (Restez fidèle au préservatif)[66]. Musique interprétée par Vanessa Paradis
+Spot TV J'ai flirté avec le virus du Sida (Restez fidèle au préservatif). Musique interprétée par Vanessa Paradis
 Ensemble luttons contre les discriminations des personnes séropositives (2006)
-3 spots TV : Femme, Couple hétéro subsaharien[67][source insuffisante] et Couple homo[68][source insuffisante]
+3 spots TV : Femme, Couple hétéro subsaharien[source insuffisante] et Couple homo[source insuffisante]
 Journée mondiale de lutte contre le sida (Contre le Sida on a tous notre mot à dire) (01/12/2006)
 Affiche Journée mondiale Pourquoi c'est vous qui avez peur alors que c'est moi qui suis séropositif ?
 3 affiches : Elle ne se voyait pas vivre avec un séropositif. Aujourd'hui, elle ne se voit pas vivre sans lui (Couple européen), Il est séropositif. Elle non. Au début, ça les a séparés… Aujourd'hui, ils n'ont jamais été aussi proches (Couple africain), et Elle ne se voyait pas vivre avec un séropositif. Aujourd'hui, elle ne se voit pas vivre sans lui (Couple maghrébin)
@@ -879,9 +1117,9 @@
 Trois témoignages d'hommes homosexuels atteints du VIH : Jonathan, Christophe et Frédéric
 Prends-moi (2006-2007)
 Magazine de prévention : numéros 1 (2006), 2 (2007)
-Site internet www.prendsmoi-mag.fr[69][source insuffisante]
-Sexe, prévention et vidéo (2009). En partenariat avec Yagg.com[70]
-8 spots TV : Je vais chez le gynéco[71] par Tatiana Potard (au service de la santé intime des lesbiennes), Je mets une capote et du gel[72] par François Sagat (acteur pornographique mis en scène enfilant un préservatif afin de montrer l'exemple), Je lutte contre les préjugés par Christophe Molinéris (président de l'association culturelle des gays et des lesbiennes sourds de France), Je n'attends pas pour faire le TPE par 2Fik (photographe franco-canadien d'origine marocaine), Je protège mon sextoy par Émilie Jouvet, Je protège mon couple par Grégory Tchalikian, Je fais le test par LucMag, et Je me protège, je te protège par Fredster et Philippe
+Site internet www.prendsmoi-mag.fr[source insuffisante]
+Sexe, prévention et vidéo (2009). En partenariat avec Yagg.com
+8 spots TV : Je vais chez le gynéco par Tatiana Potard (au service de la santé intime des lesbiennes), Je mets une capote et du gel par François Sagat (acteur pornographique mis en scène enfilant un préservatif afin de montrer l'exemple), Je lutte contre les préjugés par Christophe Molinéris (président de l'association culturelle des gays et des lesbiennes sourds de France), Je n'attends pas pour faire le TPE par 2Fik (photographe franco-canadien d'origine marocaine), Je protège mon sextoy par Émilie Jouvet, Je protège mon couple par Grégory Tchalikian, Je fais le test par LucMag, et Je me protège, je te protège par Fredster et Philippe
 Jeune et homo sous le regard des autres (2009)
 5 courts métrages de lutte contre l'homophobie : Basket et Maths, Les Incroyables Aventures de Fusion Man, Omar, En colo et Pauline. Avec notamment Alexis Michalik, Raphaël Personnaz et Claudia Tagbo
 Un rapport sexuel à risque ? Quatre réflexes pour agir (2010)
@@ -894,7 +1132,7 @@
 3 affiches J'ai décidé de faire le test du Sida : Homme, Femme et Couple
 10 reportages réalisés en partenariat avec RFO et diffusés dans l'émission « Matin Péyi » (2005)
 Kaz an nou (2006)
-8 spots TV : Préservatif[73], Premier rapport[74], Contraception[75], Dépistage, Personnes atteintes[76], Négociation de l'utilisation du préservatif[77][source insuffisante], Information sur la transmission[78][source insuffisante] et Plaisir et risques[79][source insuffisante]
+8 spots TV : Préservatif, Premier rapport, Contraception, Dépistage, Personnes atteintes, Négociation de l'utilisation du préservatif[source insuffisante], Information sur la transmission[source insuffisante] et Plaisir et risques[source insuffisante]
 Roman photo Chagren Lanmou (2007), à destination des Haïtiens de Guyane
 Arrêter le préservatif avant d’avoir fait le test du VIH, « N’y pensez même pas ! » (2008)
 4 spots TV Antilles et Guyane : Teaser et Révélation
@@ -905,7 +1143,7 @@
 Chanson et clip Nou pli fô : interprétés par Jacob Desvarieux, Dédé Saint-Prix et Prof A
 2 spots TV Sida : vous êtes contre les discriminations, alors dites-le. : Antilles et Guyane
 Affiches et annonces presse
-Site internet www.nouplifo.com[80]
+Site internet www.nouplifo.com
 Campagnes VIH/sida à destination des migrants d'Afrique sub-saharienne
 Les nouvelles aventures de Moussa le taximan (2003). Série créée par le CFES en 2001
 6 nouveaux courts métrages
@@ -918,7 +1156,7 @@
 25 spots radio Demain est devant nous
 4 affiches pour inciter au dépistage du sida et des IST les personnes originaires d’Afrique subsaharienne : Sida, le seul moyen de savoir, c'est de faire le test, Parce que la santé n'a pas de prix, le test du dépistage est gratuit, Près de chez nous, il y a des boutiques, un parc, une mairie et un centre de dépistage du sida et Je suis allé faire le test du sida. On ne m'a pas demandé mon nom, juste un peu de mon temps
 La Mission (2005)
-3 spots TV : Femmes (Salon de coiffure)[81][source insuffisante] avec Christophe Dechavanne, Hommes (Marché)[82][source insuffisante] avec Daniela Lumbroso et Jeunes (Terrain de football)[83][source insuffisante] avec Omar et Fred
+3 spots TV : Femmes (Salon de coiffure)[source insuffisante] avec Christophe Dechavanne, Hommes (Marché)[source insuffisante] avec Daniela Lumbroso et Jeunes (Terrain de football)[source insuffisante] avec Omar et Fred
 Sida : rester proche des personnes atteintes, c’est les aider à aller plus loin (2006)
 2 spots radio : Jean-Paul et Ibrahim, Aminata et Sophie
 Et la santé, on dit quoi ? (2008-2010)
@@ -926,7 +1164,7 @@
 Didier Drogba aux côtés de l’Inpes : « Contre le sida, on est là, on se bat. » (2010)
 Spot TV et Clip Faites passer le message
 Affiche Didier Drogba
-Site internet www.faitespasserlemessage.com[84]
+Site internet www.faitespasserlemessage.com
 Campagnes VIH/sida à destination des populations originaires du Maghreb
 Houria (2002)
 5 courts métrages : Protection rapprochée, Correspondance, Faut pas tout confondre, L’Insolation et Saf and Rap
@@ -952,14 +1190,50 @@
 IST / MST : derrière les mots, un enjeu de santé publique (2008)
 Brochure Le livre des Infections Sexuellement Transmissibles
 3 affiches : Une IST, ce n'est pas l'inimitable sumo en tutu, Une IST, ce n'est pas l'insecte super teigneux et Une IST, ce n'est pas l'idylle de la scie et du thon
-Site internet www.info-ist.fr[85]
-Tabac
+Site internet www.info-ist.fr
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tabac</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Détail des campagnes Tabac
 Le sport, nouvel allié contre le tabac (Journée mondiale contre le tabac 2002)
 Affiche de l'OMS Pour un sport sans tabac
 Le tabac, seul produit de consommation courante qui tue un fumeur sur deux (2002)
-2 spots TV Microtrottoir / Révélation (réalisateur : Stephan Moszkowicz) : Teaser[86][source insuffisante] et Révélation (2 versions 46 s[87][source insuffisante] et 63 s[88][source insuffisante])
-2 spots TV Vous n'avaleriez pas ce que vous fumez : Camion poubelle[89][source insuffisante] et tri sélectif[90][source insuffisante]
+2 spots TV Microtrottoir / Révélation (réalisateur : Stephan Moszkowicz) : Teaser[source insuffisante] et Révélation (2 versions 46 s[source insuffisante] et 63 s[source insuffisante])
+2 spots TV Vous n'avaleriez pas ce que vous fumez : Camion poubelle[source insuffisante] et tri sélectif[source insuffisante]
 C’est quand même mieux sans la clope (2002)
 5 programmes courts diffusés sur M6
 La presse féminine développe son engagement contre le tabac (2002)
@@ -971,18 +1245,18 @@
 45 programmes courts en partenariat avec TF1, avec Ophélie Winter
 Site internet www.jarreteetvous.org
 Le tabac, rien ne peut l'arrêter à part vous. (Journée mondiale contre le tabac 2004)
-2 spots TV Brûlure de cigarette (Homme[91][source insuffisante] et Femme[92][source insuffisante]) et 2 affiches Faisons de notre corps un espace non-fumeur : Homme et Femme
+2 spots TV Brûlure de cigarette (Homme[source insuffisante] et Femme[source insuffisante]) et 2 affiches Faisons de notre corps un espace non-fumeur : Homme et Femme
 Affiche Journée mondiale Chaque jour, 2 000 personnes gagnent contre le tabac. Pourquoi pas vous ?
 Brochure Tabac, 30 raisons de dire non
 5 spots radio Tabacologue de Tabac info service
 Femmes enceintes : oui aux envies, non aux cigarettes (2004)
 Quand vous fumez à côté d'un non-fumeur, il fume aussi (2004)
-2 spots TV Tabagisme passif : Maison[93][source insuffisante] et Entreprise[94][source insuffisante]
+2 spots TV Tabagisme passif : Maison[source insuffisante] et Entreprise[source insuffisante]
 7 spots radio pour inciter les fumeurs à arrêter
 « Femmes sans tabac », le magazine féminin gratuit qui aide à arrêter de fumer ! (2005)
 Journée mondiale sans tabac (2005)
 2 affiches Ici, un non-fumeur a fumé 14 757 cigarettes et Ici, un non-fumeur a fumé 52 858 cigarettes
-Site internet www.tabac-info-service.fr[95]
+Site internet www.tabac-info-service.fr
 « Pas à pas, une entreprise sans tabac ». Un nouvel outil pour aider les entreprises à lutter contre le tabac (2006)
 Guide Pas à pas, une entreprise sans tabac
 Le tabac, mortel sous toutes ses formes (Journée mondiale contre le tabac 2006)
@@ -991,9 +1265,9 @@
 3 affiches Ce lieu est désormais non fumeur : Bouquet, Lampe et Lierre
 Une opération se vit mieux sans tabac (2006)
 Les années enfumées (2006)
-3 spots TV : Voiture[96][source insuffisante], Restaurant[97][source insuffisante] et Bureau[98][source insuffisante]
-Le tabac tue un fumeur sur deux. L’industrie du tabac compte sur vous pour les remplacer (2006-2007)[99],[100]
-Spot TV Toxic Corp[101]
+3 spots TV : Voiture[source insuffisante], Restaurant[source insuffisante] et Bureau[source insuffisante]
+Le tabac tue un fumeur sur deux. L’industrie du tabac compte sur vous pour les remplacer (2006-2007),
+Spot TV Toxic Corp
 Site internet www.toxic-corp.fr
 Restons mobilisés ! (Journée mondiale contre le tabac 2007)
 Douze dépliants d’information sur le tabac : Aider les adolescents à ne pas fumer, Arrêter de fumer sans prendre du poids, Grossesse et tabac, La composition de la fumée du tabac, La dépendance au tabac, Le tabac en quelques chiffres, Le tabac et la loi, Les risques du tabagisme et les bénéfices de l'arrêt, Les solutions pour arrêter de fumer, Les substituts nicotiniques, L'industrie du tabac et Petite histoire du tabac
@@ -1019,7 +1293,43 @@
 Affiche Même bien habillé, la cigarette reste un poison
 Attraction : un manga interactif pour inciter les jeunes à résister à la cigarette (2010)
 Manga interactif réalisé par Kōji Morimoto
-Autres campagnes de prévention
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Campagnes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres campagnes de prévention</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Détail des autres campagnes de prévention
 Vous êtes enceinte. Protéger votre grossesse, c'est aussi protéger votre enfant (2002)
 La santé bucco-dentaire en 4 points (2003)
@@ -1030,44 +1340,150 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Édition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">L'INPES édite la revue La Santé de l'homme ainsi que la lettre électronique Équilibres.
-Baromètre Santé
-Le baromètre Santé mis en place depuis 1992, est le résultat d'enquêtes sur les comportements, attitudes, connaissances et opinions des Français en matière de santé[102].
-Séminaires
-Évaluer l'éducation pour la santé (2002)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Édition</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Baromètre Santé</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baromètre Santé mis en place depuis 1992, est le résultat d'enquêtes sur les comportements, attitudes, connaissances et opinions des Français en matière de santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Édition</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Séminaires</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Évaluer l'éducation pour la santé (2002)
 La mesure des évolutions dans les enquêtes de santé (2004)
 Former à l'éducation du patient : quelles compétences ? (2008)
-Modèles et pratiques en éducation du patient : apports internationaux (2010)
-Autres livres
- L'évolution du langage chez l'enfant : de la difficulté au trouble (2004)
+Modèles et pratiques en éducation du patient : apports internationaux (2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Édition</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Autres livres</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L'évolution du langage chez l'enfant : de la difficulté au trouble (2004)
  Adolescence et santé (2004)
- Guide Comede[103]. Migrants/étrangers en situation précaire. Prise en charge médico-psycho-sociale (2004)
+ Guide Comede. Migrants/étrangers en situation précaire. Prise en charge médico-psycho-sociale (2004)
  La surdité de l'enfant (2005)
  Éducation à la santé en milieu scolaire. Choisir, élaborer et développer un projet (2005)
  Prévention des chutes chez les personnes âgées à domicile (2005)
@@ -1075,7 +1491,7 @@
  Guide Comede (2e édition augmentée). Migrants/étrangers en situation précaire. Prise en charge médico-psycho-sociale (2007)
  Les populations africaines d'Île-de-France face au VIH/sida (2007)
  Comportements à risque et santé : agir en milieu scolaire (2008)
- La santé des élèves de 11  à   15 ans en France / 2006 (Données françaises de l'enquête internationale Health Behaviour in School-aged Children[104]) (2008)
+ La santé des élèves de 11  à   15 ans en France / 2006 (Données françaises de l'enquête internationale Health Behaviour in School-aged Children) (2008)
  Atlas régional des consommations d'alcool 2005 (Données INPES / OFDT) (2008)
  Enquête Nicolle 2006, Connaissances, attitudes et comportements face aux risques infectieux (2008)
  Quand la malvoyance s'installe. Guide pratique à l'usage des adultes et de leur entourage (2008)
@@ -1090,31 +1506,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Institut_national_de_prévention_et_d'éducation_pour_la_santé</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_national_de_pr%C3%A9vention_et_d%27%C3%A9ducation_pour_la_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Mallettes pédagogiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Léa et le feu (2004)
 Fourchettes &amp; baskets : outil d’intervention en collège sur l'alimentation et l'activité physique (2006)
